--- a/data/trans_dic/P16A06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02671764373782971</v>
+        <v>0.02726333223910272</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01744004903066857</v>
+        <v>0.01713326114424403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04177351054825879</v>
+        <v>0.04275805938546073</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0889015370829901</v>
+        <v>0.08822067388858082</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0583746513753689</v>
+        <v>0.05699070423669399</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08529169079404662</v>
+        <v>0.08581623552042673</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1301084674405945</v>
+        <v>0.1266870554656493</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1949675894134547</v>
+        <v>0.194736931562464</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04710032322937832</v>
+        <v>0.04732936179921348</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05961026019111335</v>
+        <v>0.05896251570424475</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09654489584341649</v>
+        <v>0.09651773213348279</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1564007955615485</v>
+        <v>0.1561844368803267</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05047359445799849</v>
+        <v>0.05100581924702716</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03942103579529661</v>
+        <v>0.03897032980295913</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07649717191390025</v>
+        <v>0.07744392889902396</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1372129178618201</v>
+        <v>0.1355558717299228</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.085206601259388</v>
+        <v>0.0842804168224268</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1190230128995017</v>
+        <v>0.1193870920826397</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1793080490893115</v>
+        <v>0.1765275564292395</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2388522041708701</v>
+        <v>0.239375644633762</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06601091089499214</v>
+        <v>0.06503070024353201</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08108067077002759</v>
+        <v>0.08089537986803134</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1276561140209671</v>
+        <v>0.1264644216273766</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1900169006580969</v>
+        <v>0.1897128868997156</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.04837273007079829</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07718192527763346</v>
+        <v>0.07718192527763344</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01818817248425768</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007273001857794305</v>
+        <v>0.007648162695470513</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0116298236308819</v>
+        <v>0.01239354810674406</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01170606378325076</v>
+        <v>0.01170413824791323</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03356760513572944</v>
+        <v>0.03326799924798284</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01726965011846035</v>
+        <v>0.01777246788781619</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03367660870884694</v>
+        <v>0.03445842474064197</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03915499583662545</v>
+        <v>0.0384729134109803</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06756053792593147</v>
+        <v>0.06746591602907932</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01379692097443257</v>
+        <v>0.01397579938734885</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0241725178458305</v>
+        <v>0.02415831634294438</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02709021631626776</v>
+        <v>0.02688005275198865</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05245473507908378</v>
+        <v>0.0530064185533408</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01895707919885945</v>
+        <v>0.01863415797635484</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02375057725418102</v>
+        <v>0.02455236272555764</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02282656267526944</v>
+        <v>0.02344122224314264</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05128844394520738</v>
+        <v>0.05132866084624259</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03313472715778172</v>
+        <v>0.03388650998555583</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05380759316191466</v>
+        <v>0.05376082164859561</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05935673077446333</v>
+        <v>0.05922594102642391</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08724814085901667</v>
+        <v>0.08685184542637449</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02336031076312228</v>
+        <v>0.02324121657080754</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03595739160954064</v>
+        <v>0.03516063670581886</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0381549835057429</v>
+        <v>0.03831281827328087</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06600545395871633</v>
+        <v>0.06583912851828906</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01885282636486284</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03885754671326679</v>
+        <v>0.03885754671326677</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01822000300001993</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004807443384846892</v>
+        <v>0.003609139623436192</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006529480404621552</v>
+        <v>0.008274006350613025</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009853600135973946</v>
+        <v>0.008861650611516805</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02650917895249108</v>
+        <v>0.02577936296161306</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.00773136828645025</v>
+        <v>0.008369863315546809</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01269273566539622</v>
+        <v>0.01280142396731416</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02029767364876152</v>
+        <v>0.02024331271328937</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04291497717180628</v>
+        <v>0.04396638287709893</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.007641334845531559</v>
+        <v>0.007832329928335293</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01307985055203324</v>
+        <v>0.01293476694061143</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01786254299690683</v>
+        <v>0.01876784427241445</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03799700621948068</v>
+        <v>0.03817743547879086</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02234267845376461</v>
+        <v>0.02061676295455261</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04073843730763273</v>
+        <v>0.04513044071126802</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0357580125960153</v>
+        <v>0.03472684757494943</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05625799372651569</v>
+        <v>0.05500589132366303</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03433006127072715</v>
+        <v>0.03312013043384673</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04854142205486243</v>
+        <v>0.04967479868843624</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05384755014290041</v>
+        <v>0.05486128374828822</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07241170269489162</v>
+        <v>0.07225964346583293</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02280061215389041</v>
+        <v>0.02284327228909552</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03879386956552622</v>
+        <v>0.0391252554541768</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03783139742644887</v>
+        <v>0.03879693918165856</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05926112888369264</v>
+        <v>0.05790980522798155</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02634143713450858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05165132821835771</v>
+        <v>0.05165132821835772</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04162886767141676</v>
@@ -1105,7 +1105,7 @@
         <v>0.05130073673810003</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07846478766107677</v>
+        <v>0.07846478766107676</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01509827393998887</v>
+        <v>0.01538313300508612</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01522005010951632</v>
+        <v>0.01526685453482036</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02159692740732534</v>
+        <v>0.02105276628151619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04521966754640878</v>
+        <v>0.04531157856267914</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03502399801350245</v>
+        <v>0.03518141311012241</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05457170281462408</v>
+        <v>0.0546053839267259</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0659868980039755</v>
+        <v>0.06687519020302003</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09529289068386577</v>
+        <v>0.09625407703672006</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02674597882471792</v>
+        <v>0.02668818136083243</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03683819531325761</v>
+        <v>0.03684051993624423</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04606946694737532</v>
+        <v>0.04624934279061284</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07301895854111902</v>
+        <v>0.07296108757275906</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02503087878076363</v>
+        <v>0.02548867461731896</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02673813244557422</v>
+        <v>0.02558848213750024</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03229049047110066</v>
+        <v>0.03233722053528645</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06049848705154395</v>
+        <v>0.05977236671610327</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04943968517215509</v>
+        <v>0.05000566053252023</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07286342813180458</v>
+        <v>0.07177515329266053</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0848921066766706</v>
+        <v>0.08461325200159003</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1115505623705639</v>
+        <v>0.1123491273245272</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03545576726012677</v>
+        <v>0.03549653458647305</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04713852268480512</v>
+        <v>0.04699174478529203</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0569649602515892</v>
+        <v>0.05735074617895774</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08428589988518355</v>
+        <v>0.08438863945604649</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27565</v>
+        <v>28128</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16927</v>
+        <v>16629</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>31512</v>
+        <v>32254</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>51300</v>
+        <v>50907</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>76769</v>
+        <v>74949</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>113659</v>
+        <v>114358</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>129414</v>
+        <v>126011</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>159692</v>
+        <v>159503</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>110537</v>
+        <v>111074</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>137293</v>
+        <v>135801</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>168858</v>
+        <v>168810</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>218354</v>
+        <v>218052</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>52075</v>
+        <v>52624</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38262</v>
+        <v>37824</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>57705</v>
+        <v>58420</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>79178</v>
+        <v>78222</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>112056</v>
+        <v>110838</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>158609</v>
+        <v>159094</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>178351</v>
+        <v>175585</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>195637</v>
+        <v>196065</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>154917</v>
+        <v>152616</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>186743</v>
+        <v>186317</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>223271</v>
+        <v>221187</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>265286</v>
+        <v>264861</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12309</v>
+        <v>12944</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22795</v>
+        <v>24292</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>24306</v>
+        <v>24302</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>74875</v>
+        <v>74206</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27419</v>
+        <v>28217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>58962</v>
+        <v>60331</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>77852</v>
+        <v>76496</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>146654</v>
+        <v>146449</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>45255</v>
+        <v>45842</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>89701</v>
+        <v>89648</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>110113</v>
+        <v>109259</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>230868</v>
+        <v>233296</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>32083</v>
+        <v>31536</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>46552</v>
+        <v>48123</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>47397</v>
+        <v>48673</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>114402</v>
+        <v>114492</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>52607</v>
+        <v>53801</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>94208</v>
+        <v>94126</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>118019</v>
+        <v>117759</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>189390</v>
+        <v>188530</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>76623</v>
+        <v>76233</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>133433</v>
+        <v>130476</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>155088</v>
+        <v>155730</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>290508</v>
+        <v>289776</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2651</v>
+        <v>1990</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3136</v>
+        <v>3974</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5389</v>
+        <v>4846</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18864</v>
+        <v>18344</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3683</v>
+        <v>3988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5809</v>
+        <v>5859</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>11146</v>
+        <v>11116</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>31507</v>
+        <v>32279</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7854</v>
+        <v>8050</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>12269</v>
+        <v>12133</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>19578</v>
+        <v>20570</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>54934</v>
+        <v>55195</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12320</v>
+        <v>11368</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19568</v>
+        <v>21678</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19556</v>
+        <v>18992</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40032</v>
+        <v>39141</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16355</v>
+        <v>15779</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22215</v>
+        <v>22734</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29570</v>
+        <v>30127</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>53162</v>
+        <v>53051</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23435</v>
+        <v>23479</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>36388</v>
+        <v>36699</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>41464</v>
+        <v>42522</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>85677</v>
+        <v>83723</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>49455</v>
+        <v>50388</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>51915</v>
+        <v>52074</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>72946</v>
+        <v>71108</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>159137</v>
+        <v>159461</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>118353</v>
+        <v>118885</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>193243</v>
+        <v>193362</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>233072</v>
+        <v>236210</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>354866</v>
+        <v>358445</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>177987</v>
+        <v>177602</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>256100</v>
+        <v>256116</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>318327</v>
+        <v>319570</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>528887</v>
+        <v>528468</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>81989</v>
+        <v>83489</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>91202</v>
+        <v>87281</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>109065</v>
+        <v>109223</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>212906</v>
+        <v>210351</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>167066</v>
+        <v>168979</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>258015</v>
+        <v>254162</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>299847</v>
+        <v>298862</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>415408</v>
+        <v>418382</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>235948</v>
+        <v>236220</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>327708</v>
+        <v>326688</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>393612</v>
+        <v>396277</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>610495</v>
+        <v>611239</v>
       </c>
     </row>
     <row r="20">
